--- a/comparison_of_sorting_algorithms.xlsx
+++ b/comparison_of_sorting_algorithms.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github-CSharp\Sorting Algorithms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github-C\SortingAlgosTimeComp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E61752A-5E32-4B2C-B7DF-96188FF78771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987950F2-489B-46CF-9598-12B1E6EAA7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -250,12 +250,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -263,6 +257,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -358,24 +358,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -392,16 +374,16 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>7544</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -471,24 +453,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -498,24 +462,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -584,24 +530,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -611,24 +539,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -697,24 +607,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -783,24 +675,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1845,15 +1719,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2147,7 +2021,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2161,17 +2035,17 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4">
@@ -2189,12 +2063,12 @@
       <c r="F2" s="4">
         <v>500000</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="7">
         <v>1000000</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3">
@@ -2204,112 +2078,64 @@
         <v>2</v>
       </c>
       <c r="D3" s="3">
-        <v>3</v>
+        <v>7544</v>
       </c>
       <c r="E3" s="3">
         <v>4</v>
       </c>
       <c r="F3" s="3">
+        <v>4</v>
+      </c>
+      <c r="G3" s="9">
         <v>5</v>
       </c>
-      <c r="G3" s="11">
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="3">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3">
-        <v>4</v>
-      </c>
-      <c r="G4" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3">
-        <v>4</v>
-      </c>
-      <c r="F5" s="3">
-        <v>6</v>
-      </c>
-      <c r="G5" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3">
-        <v>4</v>
-      </c>
-      <c r="F6" s="3">
-        <v>5</v>
-      </c>
-      <c r="G6" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>3</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2</v>
-      </c>
-      <c r="E7" s="3">
-        <v>5</v>
-      </c>
-      <c r="F7" s="3">
-        <v>4</v>
-      </c>
-      <c r="G7" s="11">
-        <v>6</v>
-      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="3"/>
@@ -2317,32 +2143,32 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="11"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="4">
@@ -2360,23 +2186,25 @@
       <c r="F11" s="4">
         <v>500000</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="7">
         <v>1000000</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3">
+        <v>3436</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="11"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="3"/>
@@ -2384,10 +2212,10 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="11"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="3"/>
@@ -2395,10 +2223,10 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="11"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="3"/>
@@ -2406,10 +2234,10 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="11"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="3"/>
@@ -2417,10 +2245,10 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="11"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="3"/>
@@ -2428,32 +2256,32 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="11"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="4">
@@ -2471,23 +2299,25 @@
       <c r="F20" s="4">
         <v>500000</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="7">
         <v>1000000</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3">
+        <v>6108</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="11"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="3"/>
@@ -2495,10 +2325,10 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="11"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="3"/>
@@ -2506,11 +2336,11 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="11"/>
+      <c r="G23" s="9"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="3"/>
@@ -2518,10 +2348,10 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="11"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="3"/>
@@ -2529,10 +2359,10 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="11"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="3"/>
@@ -2540,18 +2370,18 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="11"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="14"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="12"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A9">

--- a/comparison_of_sorting_algorithms.xlsx
+++ b/comparison_of_sorting_algorithms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github-C\SortingAlgosTimeComp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987950F2-489B-46CF-9598-12B1E6EAA7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862409F5-882D-4157-A139-42B9BDEDB981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
   <si>
     <t>Algorithm</t>
   </si>
@@ -51,13 +51,16 @@
     <t>ShellSort</t>
   </si>
   <si>
-    <t>Random Numbers</t>
+    <t>RANDOM SIRALI DİZİ (millisaniye cinsinden)</t>
   </si>
   <si>
-    <t>Numbers in Order</t>
+    <t>TERS SIRALI DİZİ (millisaniye cinsinden)</t>
   </si>
   <si>
-    <t>Numbers in Reverse Order</t>
+    <t>SIRALI DİZİ (millisaniye cinsinden)</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -243,20 +246,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -294,11 +307,67 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="tr-TR"/>
+              <a:t>Random Sıralı Dizi</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -315,83 +384,90 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="4"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>'Sayfa 1'!$B$4:$G$4</c:f>
+              <c:f>'Sayfa 1'!$B$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Sayfa 1'!$B$3:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7544</c:v>
+                  <c:v>7163</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>29475</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>1044905</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>3341608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6BAA-46EC-B3EC-7407ACC84028}"/>
+              <c16:uniqueId val="{00000000-0476-4142-8560-4239EABFBA27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -410,65 +486,90 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent2">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="4"/>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sayfa 1'!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Sayfa 1'!$B$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>391</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sayfa 1'!$B$4:$G$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6BAA-46EC-B3EC-7407ACC84028}"/>
+              <c16:uniqueId val="{00000003-0476-4142-8560-4239EABFBA27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -487,65 +588,90 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent3">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent3">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="4"/>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>'Sayfa 1'!$B$4:$G$4</c:f>
+              <c:f>'Sayfa 1'!$B$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Sayfa 1'!$B$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1813</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12473</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>184046</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1369431</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6BAA-46EC-B3EC-7407ACC84028}"/>
+              <c16:uniqueId val="{00000004-0476-4142-8560-4239EABFBA27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -564,56 +690,88 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent4">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent4">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="4"/>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:val>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sayfa 1'!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Sayfa 1'!$B$6:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6BAA-46EC-B3EC-7407ACC84028}"/>
+              <c16:uniqueId val="{00000005-0476-4142-8560-4239EABFBA27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -632,56 +790,88 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent5">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent5">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="4"/>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent5">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:val>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sayfa 1'!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Sayfa 1'!$B$7:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>329</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-6BAA-46EC-B3EC-7407ACC84028}"/>
+              <c16:uniqueId val="{00000006-0476-4142-8560-4239EABFBA27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -700,56 +890,90 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent6">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="4"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:val>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sayfa 1'!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Sayfa 1'!$B$8:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2891</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11456</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>289482</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1396040</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-6BAA-46EC-B3EC-7407ACC84028}"/>
+              <c16:uniqueId val="{00000008-0476-4142-8560-4239EABFBA27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -768,61 +992,91 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="4"/>
+            <c:symbol val="plus"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:glow rad="63500">
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
                   <a:schemeClr val="accent1">
                     <a:lumMod val="60000"/>
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
                   </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:val>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sayfa 1'!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Sayfa 1'!$B$9:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4673</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61886</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>401114</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-6BAA-46EC-B3EC-7407ACC84028}"/>
+              <c16:uniqueId val="{00000009-0476-4142-8560-4239EABFBA27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -834,13 +1088,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1652315280"/>
-        <c:axId val="1652315696"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1652315280"/>
+        <c:axId val="880278735"/>
+        <c:axId val="880274991"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="880278735"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -849,36 +1101,87 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="tr-TR"/>
+                  <a:t>Veri Adedi</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -887,10 +1190,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -901,42 +1205,26 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1652315696"/>
+        <c:crossAx val="880274991"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="1652315696"/>
+        <c:axId val="880274991"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -951,8 +1239,9 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="75000"/>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -961,9 +1250,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Random Numbers</a:t>
+                  <a:rPr lang="tr-TR"/>
+                  <a:t>Geçen Zaman ms cinsinden</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -982,8 +1272,9 @@
               <a:pPr>
                 <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="75000"/>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -995,14 +1286,21 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1013,8 +1311,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1025,51 +1324,31 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1652315280"/>
+        <c:crossAx val="880278735"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1000"/>
-        <c:dispUnits>
-          <c:builtInUnit val="thousands"/>
-        </c:dispUnits>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
           <a:noFill/>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1077,7 +1356,27 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-    </c:plotArea>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1091,14 +1390,2252 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="tr-TR"/>
+              <a:t>Ters Sıralı</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="tr-TR" baseline="0"/>
+              <a:t> Dizi</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sayfa 1'!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BubbleSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sayfa 1'!$B$11:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sayfa 1'!$B$12:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6774</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22812</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>694012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2522882</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D143-444D-AC5C-E6500566A671}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sayfa 1'!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HeapSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sayfa 1'!$B$11:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sayfa 1'!$B$13:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>312</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D143-444D-AC5C-E6500566A671}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sayfa 1'!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>InsertionSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sayfa 1'!$B$11:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sayfa 1'!$B$14:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14911</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>717765</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3011069</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D143-444D-AC5C-E6500566A671}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sayfa 1'!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MergeSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sayfa 1'!$B$11:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sayfa 1'!$B$15:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D143-444D-AC5C-E6500566A671}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sayfa 1'!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QuickSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sayfa 1'!$B$11:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sayfa 1'!$B$16:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D143-444D-AC5C-E6500566A671}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sayfa 1'!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SelectionSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sayfa 1'!$B$11:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sayfa 1'!$B$17:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3029</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12972</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>313147</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1511554</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-D143-444D-AC5C-E6500566A671}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sayfa 1'!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ShellSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sayfa 1'!$B$11:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sayfa 1'!$B$18:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2470</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5095</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>122739</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>834593</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-D143-444D-AC5C-E6500566A671}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="630641151"/>
+        <c:axId val="987035007"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="630641151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="tr-TR"/>
+                  <a:t>Veri Adedi</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="987035007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="987035007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="tr-TR"/>
+                  <a:t>Geçen Zaman</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="tr-TR" baseline="0"/>
+                  <a:t> ms cinsinden</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="630641151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="tr-TR"/>
+              <a:t>Sıralı Dizi</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sayfa 1'!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BubbleSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sayfa 1'!$B$20:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sayfa 1'!$B$21:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3307</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13133</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>321249</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1266094</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4211-4FCA-8B88-E3F5E8BF0BEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sayfa 1'!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HeapSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sayfa 1'!$B$20:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sayfa 1'!$B$22:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>266</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4211-4FCA-8B88-E3F5E8BF0BEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sayfa 1'!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>InsertionSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sayfa 1'!$B$20:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sayfa 1'!$B$23:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4211-4FCA-8B88-E3F5E8BF0BEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sayfa 1'!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MergeSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sayfa 1'!$B$20:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sayfa 1'!$B$24:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4211-4FCA-8B88-E3F5E8BF0BEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sayfa 1'!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QuickSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sayfa 1'!$B$20:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sayfa 1'!$B$25:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4211-4FCA-8B88-E3F5E8BF0BEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sayfa 1'!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SelectionSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sayfa 1'!$B$20:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sayfa 1'!$B$26:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2860</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12098</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>292462</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1380920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4211-4FCA-8B88-E3F5E8BF0BEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sayfa 1'!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ShellSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sayfa 1'!$B$20:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sayfa 1'!$B$27:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-4211-4FCA-8B88-E3F5E8BF0BEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1136137471"/>
+        <c:axId val="1136138719"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1136137471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="tr-TR"/>
+                  <a:t>Veri Adedi</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1136138719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1136138719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="tr-TR"/>
+                  <a:t>Geçen Zaman ms cinsinden</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1136137471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1165,15 +3702,96 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="250">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" b="1" kern="1200"/>
@@ -1183,11 +3801,24 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea>
     <cs:lnRef idx="0"/>
@@ -1198,10 +3829,7 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -1220,8 +3848,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1231,18 +3860,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1250,90 +3884,53 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
-      <a:effectLst>
-        <a:glow rad="139700">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="14000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
@@ -1343,30 +3940,23 @@
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:lumMod val="60000"/>
-          <a:lumOff val="40000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -1390,47 +3980,69 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
+  </cs:dropLine>
+  <cs:errorBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1438,17 +4050,18 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
+  </cs:errorBar>
+  <cs:floor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1456,53 +4069,37 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:gridlineMajor>
   <cs:gridlineMinor>
     <cs:lnRef idx="0"/>
@@ -1513,48 +4110,17 @@
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1562,82 +4128,136 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
+  </cs:hiLoLine>
+  <cs:leaderLine>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:seriesLine>
   <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1646,61 +4266,648 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400" cap="rnd">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="250">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:alpha val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:upBar>
   <cs:valueAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1710,6 +4917,535 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1718,23 +5454,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>10584</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A82DC4A0-9D82-A37B-5800-0B9124AA0EA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EB87B40-A41B-2C4C-68B1-41874EB19FE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1747,6 +5483,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>10583</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F96BF3DC-AC99-86ED-E7C5-1E1EE2EDEB50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>613832</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>14817</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>613832</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68AAE3F0-C2E5-E7E9-3FA1-ACA074D0429C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2018,10 +5826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T45" sqref="T45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2031,357 +5839,675 @@
     <col min="3" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="5"/>
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>1000</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>10000</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>50000</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>100000</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>500000</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>1000000</v>
       </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="9"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="11">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11">
+        <v>255</v>
+      </c>
+      <c r="D3" s="11">
+        <v>7163</v>
+      </c>
+      <c r="E3" s="11">
+        <v>29475</v>
+      </c>
+      <c r="F3" s="11">
+        <v>1044905</v>
+      </c>
+      <c r="G3" s="12">
+        <v>3341608</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11">
+        <v>16</v>
+      </c>
+      <c r="D4" s="11">
+        <v>16</v>
+      </c>
+      <c r="E4" s="11">
+        <v>47</v>
+      </c>
+      <c r="F4" s="11">
+        <v>203</v>
+      </c>
+      <c r="G4" s="12">
+        <v>391</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="11">
+        <v>0</v>
+      </c>
+      <c r="C5" s="11">
+        <v>78</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1813</v>
+      </c>
+      <c r="E5" s="11">
+        <v>12473</v>
+      </c>
+      <c r="F5" s="11">
+        <v>184046</v>
+      </c>
+      <c r="G5" s="12">
+        <v>1369431</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="B6" s="11">
+        <v>0</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11">
+        <v>16</v>
+      </c>
+      <c r="E6" s="11">
+        <v>15</v>
+      </c>
+      <c r="F6" s="11">
+        <v>125</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3">
-        <v>7544</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="B7" s="11">
+        <v>0</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11">
+        <v>16</v>
+      </c>
+      <c r="E7" s="11">
+        <v>31</v>
+      </c>
+      <c r="F7" s="11">
+        <v>125</v>
+      </c>
+      <c r="G7" s="12">
+        <v>329</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3">
-        <v>4</v>
-      </c>
-      <c r="G3" s="9">
+      <c r="B8" s="11">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11">
+        <v>141</v>
+      </c>
+      <c r="D8" s="11">
+        <v>2891</v>
+      </c>
+      <c r="E8" s="11">
+        <v>11456</v>
+      </c>
+      <c r="F8" s="11">
+        <v>289482</v>
+      </c>
+      <c r="G8" s="12">
+        <v>1396040</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="13">
+        <v>0</v>
+      </c>
+      <c r="C9" s="13">
+        <v>32</v>
+      </c>
+      <c r="D9" s="13">
+        <v>625</v>
+      </c>
+      <c r="E9" s="13">
+        <v>4673</v>
+      </c>
+      <c r="F9" s="13">
+        <v>61886</v>
+      </c>
+      <c r="G9" s="14">
+        <v>401114</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D11" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E11" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F11" s="3">
+        <v>500000</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="B12" s="11">
+        <v>3</v>
+      </c>
+      <c r="C12" s="11">
+        <v>228</v>
+      </c>
+      <c r="D12" s="11">
+        <v>6774</v>
+      </c>
+      <c r="E12" s="11">
+        <v>22812</v>
+      </c>
+      <c r="F12" s="11">
+        <v>694012</v>
+      </c>
+      <c r="G12" s="12">
+        <v>2522882</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="9"/>
+      <c r="B13" s="11">
+        <v>0</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0</v>
+      </c>
+      <c r="D13" s="11">
+        <v>16</v>
+      </c>
+      <c r="E13" s="11">
+        <v>31</v>
+      </c>
+      <c r="F13" s="11">
+        <v>157</v>
+      </c>
+      <c r="G13" s="12">
+        <v>312</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="9"/>
+      <c r="B14" s="11">
+        <v>0</v>
+      </c>
+      <c r="C14" s="11">
+        <v>172</v>
+      </c>
+      <c r="D14" s="11">
+        <v>3602</v>
+      </c>
+      <c r="E14" s="11">
+        <v>14911</v>
+      </c>
+      <c r="F14" s="11">
+        <v>717765</v>
+      </c>
+      <c r="G14" s="12">
+        <v>3011069</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="9"/>
+      <c r="B15" s="11">
+        <v>0</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0</v>
+      </c>
+      <c r="E15" s="11">
+        <v>16</v>
+      </c>
+      <c r="F15" s="11">
+        <v>78</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="B16" s="11">
         <v>0</v>
       </c>
-      <c r="B11" s="4">
-        <v>1000</v>
-      </c>
-      <c r="C11" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D11" s="4">
-        <v>50000</v>
-      </c>
-      <c r="E11" s="4">
-        <v>100000</v>
-      </c>
-      <c r="F11" s="4">
-        <v>500000</v>
-      </c>
-      <c r="G11" s="7">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3">
-        <v>3436</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="9"/>
+      <c r="C16" s="11">
+        <v>328</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="9"/>
+      <c r="B17" s="11">
+        <v>15</v>
+      </c>
+      <c r="C17" s="11">
+        <v>141</v>
+      </c>
+      <c r="D17" s="11">
+        <v>3029</v>
+      </c>
+      <c r="E17" s="11">
+        <v>12972</v>
+      </c>
+      <c r="F17" s="11">
+        <v>313147</v>
+      </c>
+      <c r="G17" s="12">
+        <v>1511554</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
+      <c r="B18" s="13">
+        <v>0</v>
+      </c>
+      <c r="C18" s="13">
+        <v>62</v>
+      </c>
+      <c r="D18" s="13">
+        <v>2470</v>
+      </c>
+      <c r="E18" s="13">
+        <v>5095</v>
+      </c>
+      <c r="F18" s="13">
+        <v>122739</v>
+      </c>
+      <c r="G18" s="14">
+        <v>834593</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="16"/>
     </row>
     <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>1000</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>10000</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>50000</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>100000</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>500000</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="6">
         <v>1000000</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3">
-        <v>6108</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="9"/>
+      <c r="B21" s="11">
+        <v>2</v>
+      </c>
+      <c r="C21" s="11">
+        <v>133</v>
+      </c>
+      <c r="D21" s="11">
+        <v>3307</v>
+      </c>
+      <c r="E21" s="11">
+        <v>13133</v>
+      </c>
+      <c r="F21" s="11">
+        <v>321249</v>
+      </c>
+      <c r="G21" s="12">
+        <v>1266094</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="9"/>
+      <c r="B22" s="11">
+        <v>0</v>
+      </c>
+      <c r="C22" s="11">
+        <v>0</v>
+      </c>
+      <c r="D22" s="11">
+        <v>15</v>
+      </c>
+      <c r="E22" s="11">
+        <v>31</v>
+      </c>
+      <c r="F22" s="11">
+        <v>157</v>
+      </c>
+      <c r="G22" s="12">
+        <v>266</v>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="9"/>
+      <c r="B23" s="11">
+        <v>0</v>
+      </c>
+      <c r="C23" s="11">
+        <v>0</v>
+      </c>
+      <c r="D23" s="11">
+        <v>0</v>
+      </c>
+      <c r="E23" s="11">
+        <v>15</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0</v>
+      </c>
+      <c r="G23" s="12">
+        <v>22</v>
+      </c>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="9"/>
+      <c r="B24" s="11">
+        <v>0</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0</v>
+      </c>
+      <c r="D24" s="11">
+        <v>0</v>
+      </c>
+      <c r="E24" s="11">
+        <v>15</v>
+      </c>
+      <c r="F24" s="11">
+        <v>78</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="9"/>
+      <c r="B25" s="11">
+        <v>0</v>
+      </c>
+      <c r="C25" s="11">
+        <v>125</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="9"/>
+      <c r="B26" s="11">
+        <v>0</v>
+      </c>
+      <c r="C26" s="11">
+        <v>140</v>
+      </c>
+      <c r="D26" s="11">
+        <v>2860</v>
+      </c>
+      <c r="E26" s="11">
+        <v>12098</v>
+      </c>
+      <c r="F26" s="11">
+        <v>292462</v>
+      </c>
+      <c r="G26" s="12">
+        <v>1380920</v>
+      </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="12"/>
+      <c r="B27" s="13">
+        <v>0</v>
+      </c>
+      <c r="C27" s="13">
+        <v>0</v>
+      </c>
+      <c r="D27" s="13">
+        <v>0</v>
+      </c>
+      <c r="E27" s="13">
+        <v>0</v>
+      </c>
+      <c r="F27" s="13">
+        <v>0</v>
+      </c>
+      <c r="G27" s="14">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A9">
